--- a/DAM_Database/Hazards/Salinity/Risk_calculation_1.xlsx
+++ b/DAM_Database/Hazards/Salinity/Risk_calculation_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PortableCompiler\Codes\Dynamic Adaptation Model\Requirements_for_GUI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PortableCompiler\Codes\Dynamic Adaptation Model\DAM\DAM_Database\Hazards\Salinity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF007AF7-9E74-42F3-82D4-01CACD1FF580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAEC242-1954-40B1-8EAF-135B07666037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{86D394BF-34B6-44A0-A9FC-BA50D2914790}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{86D394BF-34B6-44A0-A9FC-BA50D2914790}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -535,7 +535,7 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
